--- a/outputs/2023/metric_full_rel-202307.xlsx
+++ b/outputs/2023/metric_full_rel-202307.xlsx
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.47</v>
+        <v>28.28</v>
       </c>
       <c r="E2">
-        <v>31.42</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>32.79</v>
+        <v>28.28</v>
       </c>
       <c r="E3">
-        <v>31.56</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="4">
@@ -428,13 +428,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="D4">
-        <v>31.97</v>
+        <v>27.87</v>
       </c>
       <c r="E4">
-        <v>31.83</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="5">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="D5">
-        <v>32.38</v>
+        <v>27.87</v>
       </c>
       <c r="E5">
-        <v>31.28</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="6">
@@ -462,13 +462,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="D6">
-        <v>32.38</v>
+        <v>28.55</v>
       </c>
       <c r="E6">
-        <v>31.42</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="7">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="D7">
-        <v>32.24</v>
+        <v>28.83</v>
       </c>
       <c r="E7">
-        <v>31.69</v>
+        <v>19.54</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,12 +541,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C2">
@@ -559,21 +559,21 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C3">
@@ -583,24 +583,24 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38</v>
+        <v>17.39</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C4">
@@ -613,21 +613,21 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C5">
@@ -637,24 +637,24 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15.38</v>
+        <v>21.74</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C6">
@@ -667,21 +667,21 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C7">
@@ -694,21 +694,21 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C8">
@@ -721,21 +721,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G8">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C9">
@@ -748,21 +748,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G9">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C10">
@@ -775,21 +775,21 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G10">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C11">
@@ -802,21 +802,21 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G11">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C12">
@@ -829,21 +829,21 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G12">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C13">
@@ -856,21 +856,21 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G13">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C14">
@@ -883,21 +883,21 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.42</v>
+        <v>15.79</v>
       </c>
       <c r="G14">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C15">
@@ -907,24 +907,24 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>39.39</v>
+        <v>15.79</v>
       </c>
       <c r="G15">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C16">
@@ -934,24 +934,24 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>36.36</v>
+        <v>15.79</v>
       </c>
       <c r="G16">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C17">
@@ -961,24 +961,24 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F17">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G17">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C18">
@@ -988,24 +988,24 @@
         <v>6</v>
       </c>
       <c r="E18">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F18">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G18">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C19">
@@ -1015,24 +1015,24 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>3.03</v>
+        <v>5.26</v>
       </c>
       <c r="F19">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G19">
-        <v>24.24</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C20">
@@ -1045,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G20">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C21">
@@ -1072,21 +1072,21 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G21">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C22">
@@ -1099,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G22">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C23">
@@ -1126,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G23">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C24">
@@ -1153,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G24">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C25">
@@ -1180,21 +1180,21 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G25">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C26">
@@ -1207,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C27">
@@ -1234,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C28">
@@ -1261,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C29">
@@ -1288,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C30">
@@ -1315,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C31">
@@ -1342,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C32">
@@ -1369,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G32">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C33">
@@ -1396,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G33">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C34">
@@ -1423,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G34">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C35">
@@ -1450,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G35">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C36">
@@ -1474,24 +1474,24 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G36">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C37">
@@ -1501,24 +1501,24 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G37">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C38">
@@ -1531,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C39">
@@ -1558,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C40">
@@ -1582,24 +1582,24 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="G40">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C41">
@@ -1612,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C42">
@@ -1639,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C43">
@@ -1666,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C44">
@@ -1693,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G44">
-        <v>45.45</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C45">
@@ -1720,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G45">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C46">
@@ -1747,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G46">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C47">
@@ -1774,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G47">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C48">
@@ -1801,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G48">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C49">
@@ -1825,24 +1825,24 @@
         <v>7</v>
       </c>
       <c r="E49">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G49">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C50">
@@ -1855,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C51">
@@ -1882,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C52">
@@ -1909,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C53">
@@ -1936,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C54">
@@ -1963,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C55">
@@ -1990,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C56">
@@ -2017,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G56">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C57">
@@ -2044,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G57">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C58">
@@ -2071,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G58">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C59">
@@ -2098,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G59">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C60">
@@ -2125,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G60">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C61">
@@ -2152,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G61">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C62">
@@ -2179,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G62">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C63">
@@ -2206,21 +2206,21 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G63">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C64">
@@ -2233,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G64">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C65">
@@ -2260,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G65">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C66">
@@ -2287,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G66">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C67">
@@ -2314,21 +2314,21 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G67">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C68">
@@ -2341,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G68">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C69">
@@ -2368,21 +2368,21 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G69">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C70">
@@ -2395,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G70">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C71">
@@ -2422,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G71">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C72">
@@ -2449,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G72">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C73">
@@ -2476,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G73">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C74">
@@ -2503,21 +2503,21 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G74">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C75">
@@ -2530,21 +2530,21 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G75">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C76">
@@ -2557,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G76">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C77">
@@ -2584,21 +2584,21 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G77">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C78">
@@ -2611,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G78">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C79">
@@ -2638,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G79">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C80">
@@ -2665,21 +2665,21 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G80">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C81">
@@ -2692,21 +2692,21 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G81">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C82">
@@ -2719,21 +2719,21 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G82">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C83">
@@ -2746,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G83">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C84">
@@ -2773,21 +2773,21 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G84">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C85">
@@ -2800,21 +2800,21 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G85">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C86">
@@ -2827,21 +2827,21 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C87">
@@ -2851,24 +2851,24 @@
         <v>3</v>
       </c>
       <c r="E87">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C88">
@@ -2878,24 +2878,24 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C89">
@@ -2905,24 +2905,24 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C90">
@@ -2932,24 +2932,24 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C91">
@@ -2962,21 +2962,21 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>16.67</v>
+        <v>31.25</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C92">
@@ -2989,21 +2989,21 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G92">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C93">
@@ -3013,24 +3013,24 @@
         <v>3</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F93">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G93">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C94">
@@ -3040,24 +3040,24 @@
         <v>4</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F94">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G94">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C95">
@@ -3067,24 +3067,24 @@
         <v>5</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="F95">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G95">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C96">
@@ -3094,24 +3094,24 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F96">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G96">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C97">
@@ -3121,24 +3121,24 @@
         <v>7</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F97">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G97">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C98">
@@ -3151,21 +3151,21 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G98">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C99">
@@ -3178,21 +3178,21 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G99">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C100">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G100">
         <v>54.55</v>
@@ -3214,12 +3214,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C101">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G101">
         <v>54.55</v>
@@ -3241,12 +3241,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C102">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G102">
         <v>54.55</v>
@@ -3268,12 +3268,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C103">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G103">
         <v>54.55</v>
@@ -3295,12 +3295,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C104">
@@ -3313,21 +3313,21 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G104">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C105">
@@ -3340,21 +3340,21 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G105">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C106">
@@ -3367,21 +3367,21 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G106">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C107">
@@ -3394,21 +3394,21 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G107">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C108">
@@ -3421,21 +3421,21 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G108">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C109">
@@ -3448,21 +3448,21 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G109">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C110">
@@ -3475,21 +3475,21 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>46.67</v>
       </c>
       <c r="G110">
-        <v>28.85</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C111">
@@ -3502,21 +3502,21 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G111">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C112">
@@ -3529,21 +3529,21 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G112">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C113">
@@ -3556,21 +3556,21 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G113">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C114">
@@ -3583,21 +3583,21 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G114">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C115">
@@ -3610,21 +3610,21 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G115">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C116">
@@ -3637,21 +3637,21 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G116">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C117">
@@ -3664,21 +3664,21 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G117">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C118">
@@ -3691,21 +3691,21 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G118">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C119">
@@ -3718,21 +3718,21 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C120">
@@ -3745,21 +3745,21 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G120">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C121">
@@ -3772,21 +3772,21 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G121">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C122">
@@ -3799,21 +3799,21 @@
         <v>0</v>
       </c>
       <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122">
         <v>50</v>
-      </c>
-      <c r="G122">
-        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C123">
@@ -3826,21 +3826,21 @@
         <v>0</v>
       </c>
       <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123">
         <v>50</v>
-      </c>
-      <c r="G123">
-        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C124">
@@ -3853,21 +3853,21 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G124">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C125">
@@ -3880,21 +3880,21 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G125">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C126">
@@ -3907,21 +3907,21 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G126">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C127">
@@ -3934,21 +3934,21 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G127">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C128">
@@ -3961,21 +3961,21 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>60</v>
+        <v>30.3</v>
       </c>
       <c r="G128">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C129">
@@ -3988,21 +3988,21 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G129">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C130">
@@ -4012,24 +4012,24 @@
         <v>4</v>
       </c>
       <c r="E130">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G130">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C131">
@@ -4039,24 +4039,24 @@
         <v>5</v>
       </c>
       <c r="E131">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G131">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C132">
@@ -4066,24 +4066,24 @@
         <v>6</v>
       </c>
       <c r="E132">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G132">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C133">
@@ -4093,24 +4093,24 @@
         <v>7</v>
       </c>
       <c r="E133">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G133">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C134">
@@ -4123,21 +4123,21 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G134">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C135">
@@ -4147,24 +4147,24 @@
         <v>3</v>
       </c>
       <c r="E135">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F135">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G135">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C136">
@@ -4174,24 +4174,24 @@
         <v>4</v>
       </c>
       <c r="E136">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F136">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G136">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C137">
@@ -4201,24 +4201,24 @@
         <v>5</v>
       </c>
       <c r="E137">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G137">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C138">
@@ -4228,24 +4228,24 @@
         <v>6</v>
       </c>
       <c r="E138">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G138">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C139">
@@ -4255,24 +4255,24 @@
         <v>7</v>
       </c>
       <c r="E139">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G139">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C140">
@@ -4285,21 +4285,21 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G140">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C141">
@@ -4312,21 +4312,21 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G141">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C142">
@@ -4339,21 +4339,21 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G142">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C143">
@@ -4366,21 +4366,21 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G143">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C144">
@@ -4393,21 +4393,21 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G144">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C145">
@@ -4420,21 +4420,21 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G145">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C146">
@@ -4447,21 +4447,21 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G146">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C147">
@@ -4474,21 +4474,21 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G147">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C148">
@@ -4498,24 +4498,24 @@
         <v>4</v>
       </c>
       <c r="E148">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>48.48</v>
+        <v>42.42</v>
       </c>
       <c r="G148">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C149">
@@ -4525,24 +4525,24 @@
         <v>5</v>
       </c>
       <c r="E149">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>45.45</v>
+        <v>42.42</v>
       </c>
       <c r="G149">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C150">
@@ -4552,24 +4552,24 @@
         <v>6</v>
       </c>
       <c r="E150">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G150">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C151">
@@ -4579,24 +4579,24 @@
         <v>7</v>
       </c>
       <c r="E151">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G151">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C152">
@@ -4609,21 +4609,21 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C153">
@@ -4636,21 +4636,21 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C154">
@@ -4663,21 +4663,21 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C155">
@@ -4687,24 +4687,24 @@
         <v>5</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F155">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C156">
@@ -4714,24 +4714,24 @@
         <v>6</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="F156">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C157">
@@ -4741,24 +4741,24 @@
         <v>7</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F157">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C158">
@@ -4771,21 +4771,21 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G158">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C159">
@@ -4798,21 +4798,21 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G159">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C160">
@@ -4825,21 +4825,21 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G160">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C161">
@@ -4852,21 +4852,21 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G161">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C162">
@@ -4879,21 +4879,21 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G162">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C163">
@@ -4906,658 +4906,10 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G163">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C164">
-        <v>2023</v>
-      </c>
-      <c r="D164">
-        <v>2</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>33.33</v>
-      </c>
-      <c r="G164">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C165">
-        <v>2023</v>
-      </c>
-      <c r="D165">
-        <v>3</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>33.33</v>
-      </c>
-      <c r="G165">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C166">
-        <v>2023</v>
-      </c>
-      <c r="D166">
-        <v>4</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>33.33</v>
-      </c>
-      <c r="G166">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C167">
-        <v>2023</v>
-      </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>33.33</v>
-      </c>
-      <c r="G167">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C168">
-        <v>2023</v>
-      </c>
-      <c r="D168">
-        <v>6</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>33.33</v>
-      </c>
-      <c r="G168">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C169">
-        <v>2023</v>
-      </c>
-      <c r="D169">
-        <v>7</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>33.33</v>
-      </c>
-      <c r="G169">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C170">
-        <v>2023</v>
-      </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>7.69</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C171">
-        <v>2023</v>
-      </c>
-      <c r="D171">
-        <v>3</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>7.69</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C172">
-        <v>2023</v>
-      </c>
-      <c r="D172">
-        <v>4</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>7.69</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C173">
-        <v>2023</v>
-      </c>
-      <c r="D173">
-        <v>5</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>7.69</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C174">
-        <v>2023</v>
-      </c>
-      <c r="D174">
-        <v>6</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>7.69</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C175">
-        <v>2023</v>
-      </c>
-      <c r="D175">
-        <v>7</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>7.69</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C176">
-        <v>2023</v>
-      </c>
-      <c r="D176">
-        <v>2</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>29.33</v>
-      </c>
-      <c r="G176">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C177">
-        <v>2023</v>
-      </c>
-      <c r="D177">
-        <v>3</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>28</v>
-      </c>
-      <c r="G177">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C178">
-        <v>2023</v>
-      </c>
-      <c r="D178">
-        <v>4</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>29.33</v>
-      </c>
-      <c r="G178">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C179">
-        <v>2023</v>
-      </c>
-      <c r="D179">
-        <v>5</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>29.33</v>
-      </c>
-      <c r="G179">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C180">
-        <v>2023</v>
-      </c>
-      <c r="D180">
-        <v>6</v>
-      </c>
-      <c r="E180">
-        <v>1.33</v>
-      </c>
-      <c r="F180">
-        <v>28</v>
-      </c>
-      <c r="G180">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C181">
-        <v>2023</v>
-      </c>
-      <c r="D181">
-        <v>7</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>28</v>
-      </c>
-      <c r="G181">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C182">
-        <v>2023</v>
-      </c>
-      <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>39.13</v>
-      </c>
-      <c r="G182">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C183">
-        <v>2023</v>
-      </c>
-      <c r="D183">
-        <v>3</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>39.13</v>
-      </c>
-      <c r="G183">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C184">
-        <v>2023</v>
-      </c>
-      <c r="D184">
-        <v>4</v>
-      </c>
-      <c r="E184">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F184">
-        <v>30.43</v>
-      </c>
-      <c r="G184">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C185">
-        <v>2023</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-      <c r="E185">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F185">
-        <v>30.43</v>
-      </c>
-      <c r="G185">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C186">
-        <v>2023</v>
-      </c>
-      <c r="D186">
-        <v>6</v>
-      </c>
-      <c r="E186">
-        <v>4.35</v>
-      </c>
-      <c r="F186">
-        <v>34.78</v>
-      </c>
-      <c r="G186">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C187">
-        <v>2023</v>
-      </c>
-      <c r="D187">
-        <v>7</v>
-      </c>
-      <c r="E187">
-        <v>4.35</v>
-      </c>
-      <c r="F187">
-        <v>34.78</v>
-      </c>
-      <c r="G187">
-        <v>13.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5621,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F2">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="3">
@@ -5643,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F3">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="4">
@@ -5665,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F4">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="5">
@@ -5687,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F5">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -5709,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F6">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -5728,13 +5080,13 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E7">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F7">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -5753,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>33.93</v>
+        <v>29.46</v>
       </c>
       <c r="F8">
-        <v>40.18</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="9">
@@ -5772,13 +5124,13 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>33.04</v>
+        <v>30.36</v>
       </c>
       <c r="F9">
-        <v>40.18</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="10">
@@ -5794,13 +5146,13 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>28.57</v>
+        <v>26.79</v>
       </c>
       <c r="F10">
-        <v>43.75</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="11">
@@ -5816,13 +5168,13 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E11">
+        <v>27.68</v>
+      </c>
+      <c r="F11">
         <v>29.46</v>
-      </c>
-      <c r="F11">
-        <v>43.75</v>
       </c>
     </row>
     <row r="12">
@@ -5838,13 +5190,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>29.46</v>
       </c>
       <c r="F12">
-        <v>43.75</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="13">
@@ -5860,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>29.46</v>
+        <v>30.36</v>
       </c>
       <c r="F13">
-        <v>43.75</v>
+        <v>26.79</v>
       </c>
     </row>
   </sheetData>
